--- a/biology/Botanique/Pimpinella_peregrina/Pimpinella_peregrina.xlsx
+++ b/biology/Botanique/Pimpinella_peregrina/Pimpinella_peregrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pimpinella peregrina, de nom commun Boucage voyageur ou Pimpinelle voyageuse[1], est une espèce eurasiatique de plante de la famille des Apiaceae et du genre Pimpinella.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pimpinella peregrina, de nom commun Boucage voyageur ou Pimpinelle voyageuse, est une espèce eurasiatique de plante de la famille des Apiaceae et du genre Pimpinella.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pimpinella peregrina est une plante  bisannuelle de 50 cm à 1 mètre, pubérulente, à souche en fuseau, non ligneuse, nue au sommet. La tige est  pleine, finement striée, rameuse, feuillée. Les feuilles inférieures sont pennatiséquées, ont 5 à 9 folioles orbiculaires en cœur et crénelées, les feuilles moyennes sont incisés-dentés, les supérieures sont divisées en lobes linéaires. Les  fleurs sont blanches, en ombelles de 8 à 30 rayons filiformes, pubérulentes, conniventes à la maturité. Le fruit est petit, subglobuleux, hérissé de poils étalés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pimpinella peregrina est une plante  bisannuelle de 50 cm à 1 mètre, pubérulente, à souche en fuseau, non ligneuse, nue au sommet. La tige est  pleine, finement striée, rameuse, feuillée. Les feuilles inférieures sont pennatiséquées, ont 5 à 9 folioles orbiculaires en cœur et crénelées, les feuilles moyennes sont incisés-dentés, les supérieures sont divisées en lobes linéaires. Les  fleurs sont blanches, en ombelles de 8 à 30 rayons filiformes, pubérulentes, conniventes à la maturité. Le fruit est petit, subglobuleux, hérissé de poils étalés.
 La floraison a lieu en juin et juillet.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pimpinella peregrina est présente en Europe méridionale, dans le Caucase et en Asie Mineure[2].
-Elle pousse sur des coteaux arides ou rocailleux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pimpinella peregrina est présente en Europe méridionale, dans le Caucase et en Asie Mineure.
+Elle pousse sur des coteaux arides ou rocailleux.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pimpinella peregrina est une plante médicinale cultivée en Suisse pour ses racines[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pimpinella peregrina est une plante médicinale cultivée en Suisse pour ses racines.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasite Lasioptera carophila. La feuille a pour parasites Semiaphis pimpinellae (sv), Leveillula lanuginosa, Plasmopara pimpinellae, Puccinia bistortae, Puccinia pimpinellae (sv), Melanagromyza sativae (sv)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasite Lasioptera carophila. La feuille a pour parasites Semiaphis pimpinellae (sv), Leveillula lanuginosa, Plasmopara pimpinellae, Puccinia bistortae, Puccinia pimpinellae (sv), Melanagromyza sativae (sv).
 </t>
         </is>
       </c>
